--- a/excel/2009~2011学年-应用系统开发实践.xlsx
+++ b/excel/2009~2011学年-应用系统开发实践.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="435">
   <si>
     <t>达成目标值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1172,10 +1172,6 @@
   </si>
   <si>
     <t>赵宇韬</t>
-  </si>
-  <si>
-    <t>20091870</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>苏雄</t>
@@ -1649,6 +1645,14 @@
   </si>
   <si>
     <t>班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08111003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20091870</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2472,7 +2476,7 @@
     </row>
     <row r="5" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B5" s="3">
         <v>0.3</v>
@@ -2496,12 +2500,12 @@
         <v>0.25</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="3">
         <v>0.4</v>
@@ -2525,7 +2529,7 @@
         <v>0.34</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2543,7 +2547,7 @@
     </row>
     <row r="8" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B8" s="3">
         <v>0.3</v>
@@ -2567,7 +2571,7 @@
         <v>0.25</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2596,12 +2600,12 @@
         <v>0.25</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B10" s="3">
         <v>0.4</v>
@@ -2625,7 +2629,7 @@
         <v>0.36</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2654,12 +2658,12 @@
         <v>0.24</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="45" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -2672,10 +2676,10 @@
     </row>
     <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
@@ -2687,10 +2691,10 @@
     </row>
     <row r="14" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -2702,10 +2706,10 @@
     </row>
     <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="39" t="s">
         <v>411</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>412</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -2728,7 +2732,7 @@
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2741,10 +2745,10 @@
     </row>
     <row r="18" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -2756,10 +2760,10 @@
     </row>
     <row r="19" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -2771,10 +2775,10 @@
     </row>
     <row r="20" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -2807,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P25" sqref="P1:Q1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A91" sqref="A5:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2818,7 +2822,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2845,7 +2849,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2888,7 +2892,7 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2931,13 +2935,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
         <v>431</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>432</v>
-      </c>
-      <c r="C4" t="s">
-        <v>433</v>
       </c>
       <c r="D4" s="27"/>
     </row>
@@ -7665,7 +7669,7 @@
   <dimension ref="A1:O96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:R1048576"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7675,7 +7679,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -7702,7 +7706,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -7745,7 +7749,7 @@
     </row>
     <row r="3" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -7788,13 +7792,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
         <v>431</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>432</v>
-      </c>
-      <c r="C4" t="s">
-        <v>433</v>
       </c>
       <c r="D4" s="27"/>
     </row>
@@ -10620,10 +10624,10 @@
     </row>
     <row r="65" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>342</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>343</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>281</v>
@@ -10667,13 +10671,13 @@
     </row>
     <row r="66" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="C66" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="D66" s="25">
         <v>20</v>
@@ -10714,13 +10718,13 @@
     </row>
     <row r="67" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="B67" s="26" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="26" t="s">
-        <v>348</v>
-      </c>
       <c r="C67" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D67" s="25">
         <v>24</v>
@@ -10761,13 +10765,13 @@
     </row>
     <row r="68" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B68" s="26" t="s">
-        <v>350</v>
-      </c>
       <c r="C68" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D68" s="25">
         <v>17</v>
@@ -10808,13 +10812,13 @@
     </row>
     <row r="69" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="B69" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>352</v>
-      </c>
       <c r="C69" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D69" s="25">
         <v>19</v>
@@ -10855,13 +10859,13 @@
     </row>
     <row r="70" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="26" t="s">
-        <v>354</v>
-      </c>
       <c r="C70" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D70" s="25">
         <v>20</v>
@@ -10902,13 +10906,13 @@
     </row>
     <row r="71" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="B71" s="26" t="s">
-        <v>356</v>
-      </c>
       <c r="C71" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D71" s="25">
         <v>19</v>
@@ -10949,13 +10953,13 @@
     </row>
     <row r="72" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B72" s="26" t="s">
-        <v>358</v>
-      </c>
       <c r="C72" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D72" s="25">
         <v>24</v>
@@ -10996,13 +11000,13 @@
     </row>
     <row r="73" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B73" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="B73" s="26" t="s">
-        <v>360</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D73" s="25">
         <v>23</v>
@@ -11043,13 +11047,13 @@
     </row>
     <row r="74" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B74" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="B74" s="26" t="s">
-        <v>362</v>
-      </c>
       <c r="C74" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D74" s="25">
         <v>21</v>
@@ -11090,13 +11094,13 @@
     </row>
     <row r="75" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="B75" s="26" t="s">
-        <v>364</v>
-      </c>
       <c r="C75" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D75" s="25">
         <v>16</v>
@@ -11137,13 +11141,13 @@
     </row>
     <row r="76" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="26" t="s">
-        <v>366</v>
-      </c>
       <c r="C76" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D76" s="25">
         <v>23</v>
@@ -11184,13 +11188,13 @@
     </row>
     <row r="77" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B77" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>368</v>
-      </c>
       <c r="C77" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D77" s="25">
         <v>20</v>
@@ -11231,13 +11235,13 @@
     </row>
     <row r="78" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>370</v>
-      </c>
       <c r="C78" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D78" s="25">
         <v>16</v>
@@ -11278,13 +11282,13 @@
     </row>
     <row r="79" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B79" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="B79" s="26" t="s">
-        <v>372</v>
-      </c>
       <c r="C79" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D79" s="25">
         <v>24</v>
@@ -11325,13 +11329,13 @@
     </row>
     <row r="80" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="B80" s="26" t="s">
-        <v>374</v>
-      </c>
       <c r="C80" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D80" s="25">
         <v>20</v>
@@ -11372,13 +11376,13 @@
     </row>
     <row r="81" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B81" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>376</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D81" s="25">
         <v>24</v>
@@ -11419,13 +11423,13 @@
     </row>
     <row r="82" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B82" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="26" t="s">
-        <v>378</v>
-      </c>
       <c r="C82" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D82" s="25">
         <v>20</v>
@@ -11466,13 +11470,13 @@
     </row>
     <row r="83" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>380</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D83" s="25">
         <v>18</v>
@@ -11513,13 +11517,13 @@
     </row>
     <row r="84" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="B84" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="B84" s="26" t="s">
-        <v>382</v>
-      </c>
       <c r="C84" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D84" s="25">
         <v>16</v>
@@ -11560,13 +11564,13 @@
     </row>
     <row r="85" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B85" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="B85" s="26" t="s">
-        <v>384</v>
-      </c>
       <c r="C85" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D85" s="25">
         <v>17</v>
@@ -11607,13 +11611,13 @@
     </row>
     <row r="86" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="B86" s="26" t="s">
-        <v>386</v>
-      </c>
       <c r="C86" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D86" s="25">
         <v>19</v>
@@ -11654,13 +11658,13 @@
     </row>
     <row r="87" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="B87" s="26" t="s">
-        <v>388</v>
-      </c>
       <c r="C87" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D87" s="25">
         <v>19</v>
@@ -11701,13 +11705,13 @@
     </row>
     <row r="88" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B88" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="B88" s="26" t="s">
-        <v>390</v>
-      </c>
       <c r="C88" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D88" s="25">
         <v>23</v>
@@ -11748,13 +11752,13 @@
     </row>
     <row r="89" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B89" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="26" t="s">
-        <v>392</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D89" s="25">
         <v>23</v>
@@ -11795,13 +11799,13 @@
     </row>
     <row r="90" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B90" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="26" t="s">
-        <v>394</v>
-      </c>
       <c r="C90" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D90" s="25">
         <v>20</v>
@@ -11842,13 +11846,13 @@
     </row>
     <row r="91" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B91" s="26" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="26" t="s">
-        <v>396</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D91" s="25">
         <v>21</v>
@@ -11889,13 +11893,13 @@
     </row>
     <row r="92" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B92" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="B92" s="26" t="s">
-        <v>398</v>
-      </c>
       <c r="C92" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D92" s="25">
         <v>17</v>
@@ -11936,13 +11940,13 @@
     </row>
     <row r="93" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B93" s="26" t="s">
         <v>399</v>
       </c>
-      <c r="B93" s="26" t="s">
-        <v>400</v>
-      </c>
       <c r="C93" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D93" s="25">
         <v>19</v>
@@ -11983,13 +11987,13 @@
     </row>
     <row r="94" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B94" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="B94" s="26" t="s">
-        <v>402</v>
-      </c>
       <c r="C94" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D94" s="25">
         <v>15</v>
@@ -12030,13 +12034,13 @@
     </row>
     <row r="95" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B95" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="B95" s="26" t="s">
-        <v>404</v>
-      </c>
       <c r="C95" s="15" t="s">
-        <v>346</v>
+        <v>433</v>
       </c>
       <c r="D95" s="25">
         <v>14</v>
